--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.370274</v>
+        <v>17.854749</v>
       </c>
       <c r="N2">
-        <v>14.740548</v>
+        <v>35.709498</v>
       </c>
       <c r="O2">
-        <v>0.08213358173824917</v>
+        <v>0.1485342860281391</v>
       </c>
       <c r="P2">
-        <v>0.05996856771214628</v>
+        <v>0.1129238309388153</v>
       </c>
       <c r="Q2">
-        <v>750.974504837667</v>
+        <v>1905.123590367525</v>
       </c>
       <c r="R2">
-        <v>3003.898019350668</v>
+        <v>7620.494361470099</v>
       </c>
       <c r="S2">
-        <v>0.01555486265229619</v>
+        <v>0.02691747338258909</v>
       </c>
       <c r="T2">
-        <v>0.008285361669083287</v>
+        <v>0.01483804071421268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H3">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I3">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J3">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.949648</v>
       </c>
       <c r="O3">
-        <v>0.01838612416053829</v>
+        <v>0.01372543203623505</v>
       </c>
       <c r="P3">
-        <v>0.020136517396727</v>
+        <v>0.0156522282659545</v>
       </c>
       <c r="Q3">
-        <v>168.1104147064613</v>
+        <v>176.0445016396</v>
       </c>
       <c r="R3">
-        <v>1008.662488238768</v>
+        <v>1056.2670098376</v>
       </c>
       <c r="S3">
-        <v>0.003482054842520669</v>
+        <v>0.002487331116466276</v>
       </c>
       <c r="T3">
-        <v>0.002782096283981759</v>
+        <v>0.0020566819098107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H4">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I4">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J4">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.84483466666667</v>
+        <v>27.92847233333333</v>
       </c>
       <c r="N4">
-        <v>77.534504</v>
+        <v>83.785417</v>
       </c>
       <c r="O4">
-        <v>0.2880122015282203</v>
+        <v>0.2323379453773505</v>
       </c>
       <c r="P4">
-        <v>0.3154314990970265</v>
+        <v>0.2649538860626421</v>
       </c>
       <c r="Q4">
-        <v>2633.390823246377</v>
+        <v>2980.002210345275</v>
       </c>
       <c r="R4">
-        <v>15800.34493947826</v>
+        <v>17880.01326207165</v>
       </c>
       <c r="S4">
-        <v>0.05454517071024812</v>
+        <v>0.04210442334691324</v>
       </c>
       <c r="T4">
-        <v>0.04358056481163283</v>
+        <v>0.0348145871079814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H5">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I5">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J5">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0307785</v>
+        <v>26.5375775</v>
       </c>
       <c r="N5">
-        <v>32.061557</v>
+        <v>53.075155</v>
       </c>
       <c r="O5">
-        <v>0.1786453605737748</v>
+        <v>0.2207670422518351</v>
       </c>
       <c r="P5">
-        <v>0.1304351542365547</v>
+        <v>0.1678390950853305</v>
       </c>
       <c r="Q5">
-        <v>1633.413621555972</v>
+        <v>2831.592027782438</v>
       </c>
       <c r="R5">
-        <v>6533.654486223887</v>
+        <v>11326.36811112975</v>
       </c>
       <c r="S5">
-        <v>0.0338327391596137</v>
+        <v>0.04000753726611588</v>
       </c>
       <c r="T5">
-        <v>0.01802114788533838</v>
+        <v>0.02205383315114508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H6">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I6">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J6">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.440814333333334</v>
+        <v>24.58209666666666</v>
       </c>
       <c r="N6">
-        <v>28.322443</v>
+        <v>73.74628999999999</v>
       </c>
       <c r="O6">
-        <v>0.1052074720319038</v>
+        <v>0.2044993282996043</v>
       </c>
       <c r="P6">
-        <v>0.115223419157748</v>
+        <v>0.233207243191289</v>
       </c>
       <c r="Q6">
-        <v>961.9467158533523</v>
+        <v>2622.939827401749</v>
       </c>
       <c r="R6">
-        <v>5771.680295120113</v>
+        <v>15737.6389644105</v>
       </c>
       <c r="S6">
-        <v>0.01992470975717175</v>
+        <v>0.03705949227923797</v>
       </c>
       <c r="T6">
-        <v>0.01591946809623335</v>
+        <v>0.03064312059335406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H7">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I7">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J7">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.39862333333333</v>
+        <v>21.65346833333334</v>
       </c>
       <c r="N7">
-        <v>88.19587</v>
+        <v>64.96040500000001</v>
       </c>
       <c r="O7">
-        <v>0.3276152599673137</v>
+        <v>0.1801359660068359</v>
       </c>
       <c r="P7">
-        <v>0.3588048423997975</v>
+        <v>0.2054237164559686</v>
       </c>
       <c r="Q7">
-        <v>2995.494685904362</v>
+        <v>2310.451596665375</v>
       </c>
       <c r="R7">
-        <v>17972.96811542617</v>
+        <v>13862.70957999225</v>
       </c>
       <c r="S7">
-        <v>0.06204539317216566</v>
+        <v>0.03264434899102955</v>
       </c>
       <c r="T7">
-        <v>0.04957310139822838</v>
+        <v>0.02699240225112505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J8">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.370274</v>
+        <v>17.854749</v>
       </c>
       <c r="N8">
-        <v>14.740548</v>
+        <v>35.709498</v>
       </c>
       <c r="O8">
-        <v>0.08213358173824917</v>
+        <v>0.1485342860281391</v>
       </c>
       <c r="P8">
-        <v>0.05996856771214628</v>
+        <v>0.1129238309388153</v>
       </c>
       <c r="Q8">
-        <v>532.8986944032999</v>
+        <v>1290.96590316705</v>
       </c>
       <c r="R8">
-        <v>3197.3921664198</v>
+        <v>7745.795419002299</v>
       </c>
       <c r="S8">
-        <v>0.01103787937624208</v>
+        <v>0.01824004516663692</v>
       </c>
       <c r="T8">
-        <v>0.00881905787947098</v>
+        <v>0.01508201729958975</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.949648</v>
       </c>
       <c r="O9">
-        <v>0.01838612416053829</v>
+        <v>0.01372543203623505</v>
       </c>
       <c r="P9">
-        <v>0.020136517396727</v>
+        <v>0.0156522282659545</v>
       </c>
       <c r="Q9">
         <v>119.2927588560889</v>
@@ -1013,10 +1013,10 @@
         <v>1073.6348297048</v>
       </c>
       <c r="S9">
-        <v>0.002470899434623365</v>
+        <v>0.001685486273688382</v>
       </c>
       <c r="T9">
-        <v>0.002961303215796846</v>
+        <v>0.002090499193320495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J10">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.84483466666667</v>
+        <v>27.92847233333333</v>
       </c>
       <c r="N10">
-        <v>77.534504</v>
+        <v>83.785417</v>
       </c>
       <c r="O10">
-        <v>0.2880122015282203</v>
+        <v>0.2323379453773505</v>
       </c>
       <c r="P10">
-        <v>0.3154314990970265</v>
+        <v>0.2649538860626421</v>
       </c>
       <c r="Q10">
-        <v>1868.679326024489</v>
+        <v>2019.334212420328</v>
       </c>
       <c r="R10">
-        <v>16818.1139342204</v>
+        <v>18174.00791178295</v>
       </c>
       <c r="S10">
-        <v>0.0387057750566107</v>
+        <v>0.02853115419293599</v>
       </c>
       <c r="T10">
-        <v>0.04638777869262894</v>
+        <v>0.035387030885938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J11">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.0307785</v>
+        <v>26.5375775</v>
       </c>
       <c r="N11">
-        <v>32.061557</v>
+        <v>53.075155</v>
       </c>
       <c r="O11">
-        <v>0.1786453605737748</v>
+        <v>0.2207670422518351</v>
       </c>
       <c r="P11">
-        <v>0.1304351542365547</v>
+        <v>0.1678390950853305</v>
       </c>
       <c r="Q11">
-        <v>1159.085935328658</v>
+        <v>1918.767253751542</v>
       </c>
       <c r="R11">
-        <v>6954.51561197195</v>
+        <v>11512.60352250925</v>
       </c>
       <c r="S11">
-        <v>0.0240080354394226</v>
+        <v>0.02711024457488189</v>
       </c>
       <c r="T11">
-        <v>0.01918196846473808</v>
+        <v>0.02241645642535797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J12">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.440814333333334</v>
+        <v>24.58209666666666</v>
       </c>
       <c r="N12">
-        <v>28.322443</v>
+        <v>73.74628999999999</v>
       </c>
       <c r="O12">
-        <v>0.1052074720319038</v>
+        <v>0.2044993282996043</v>
       </c>
       <c r="P12">
-        <v>0.115223419157748</v>
+        <v>0.233207243191289</v>
       </c>
       <c r="Q12">
-        <v>682.6065940475611</v>
+        <v>1777.378591265722</v>
       </c>
       <c r="R12">
-        <v>6143.45934642805</v>
+        <v>15996.4073213915</v>
       </c>
       <c r="S12">
-        <v>0.0141387646951566</v>
+        <v>0.02511256548555428</v>
       </c>
       <c r="T12">
-        <v>0.01694491033203228</v>
+        <v>0.03114697444250162</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J13">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.39862333333333</v>
+        <v>21.65346833333334</v>
       </c>
       <c r="N13">
-        <v>88.19587</v>
+        <v>64.96040500000001</v>
       </c>
       <c r="O13">
-        <v>0.3276152599673137</v>
+        <v>0.1801359660068359</v>
       </c>
       <c r="P13">
-        <v>0.3588048423997975</v>
+        <v>0.2054237164559686</v>
       </c>
       <c r="Q13">
-        <v>2125.631691791611</v>
+        <v>1565.627682788528</v>
       </c>
       <c r="R13">
-        <v>19130.6852261245</v>
+        <v>14090.64914509675</v>
       </c>
       <c r="S13">
-        <v>0.04402800468217453</v>
+        <v>0.0221207388809746</v>
       </c>
       <c r="T13">
-        <v>0.05276632064562987</v>
+        <v>0.0274362286470215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H14">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I14">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J14">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.370274</v>
+        <v>17.854749</v>
       </c>
       <c r="N14">
-        <v>14.740548</v>
+        <v>35.709498</v>
       </c>
       <c r="O14">
-        <v>0.08213358173824917</v>
+        <v>0.1485342860281391</v>
       </c>
       <c r="P14">
-        <v>0.05996856771214628</v>
+        <v>0.1129238309388153</v>
       </c>
       <c r="Q14">
-        <v>1120.82547595088</v>
+        <v>2509.776409066344</v>
       </c>
       <c r="R14">
-        <v>6724.952855705279</v>
+        <v>15058.65845439806</v>
       </c>
       <c r="S14">
-        <v>0.02321555022614129</v>
+        <v>0.03546060740041578</v>
       </c>
       <c r="T14">
-        <v>0.01854878769456262</v>
+        <v>0.02932106194809605</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H15">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I15">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J15">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.949648</v>
       </c>
       <c r="O15">
-        <v>0.01838612416053829</v>
+        <v>0.01372543203623505</v>
       </c>
       <c r="P15">
-        <v>0.020136517396727</v>
+        <v>0.0156522282659545</v>
       </c>
       <c r="Q15">
-        <v>250.9039046756977</v>
+        <v>231.9179392848071</v>
       </c>
       <c r="R15">
-        <v>2258.13514208128</v>
+        <v>2087.261453563264</v>
       </c>
       <c r="S15">
-        <v>0.005196948433021611</v>
+        <v>0.003276766394163129</v>
       </c>
       <c r="T15">
-        <v>0.006228395980584744</v>
+        <v>0.004064155021985179</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H16">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I16">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J16">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.84483466666667</v>
+        <v>27.92847233333333</v>
       </c>
       <c r="N16">
-        <v>77.534504</v>
+        <v>83.785417</v>
       </c>
       <c r="O16">
-        <v>0.2880122015282203</v>
+        <v>0.2323379453773505</v>
       </c>
       <c r="P16">
-        <v>0.3154314990970265</v>
+        <v>0.2649538860626421</v>
       </c>
       <c r="Q16">
-        <v>3930.321873533937</v>
+        <v>3925.802653594405</v>
       </c>
       <c r="R16">
-        <v>35372.89686180544</v>
+        <v>35332.22388234965</v>
       </c>
       <c r="S16">
-        <v>0.0814083787509552</v>
+        <v>0.05546762895998748</v>
       </c>
       <c r="T16">
-        <v>0.09756564367208168</v>
+        <v>0.068796189803734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H17">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I17">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J17">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0307785</v>
+        <v>26.5375775</v>
       </c>
       <c r="N17">
-        <v>32.061557</v>
+        <v>53.075155</v>
       </c>
       <c r="O17">
-        <v>0.1786453605737748</v>
+        <v>0.2207670422518351</v>
       </c>
       <c r="P17">
-        <v>0.1304351542365547</v>
+        <v>0.1678390950853305</v>
       </c>
       <c r="Q17">
-        <v>2437.861189709587</v>
+        <v>3730.289681656673</v>
       </c>
       <c r="R17">
-        <v>14627.16713825752</v>
+        <v>22381.73808994004</v>
       </c>
       <c r="S17">
-        <v>0.050495184226651</v>
+        <v>0.05270522800883997</v>
       </c>
       <c r="T17">
-        <v>0.04034470183538075</v>
+        <v>0.04357999957489742</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H18">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I18">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J18">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.440814333333334</v>
+        <v>24.58209666666666</v>
       </c>
       <c r="N18">
-        <v>28.322443</v>
+        <v>73.74628999999999</v>
       </c>
       <c r="O18">
-        <v>0.1052074720319038</v>
+        <v>0.2044993282996043</v>
       </c>
       <c r="P18">
-        <v>0.115223419157748</v>
+        <v>0.233207243191289</v>
       </c>
       <c r="Q18">
-        <v>1435.700384886942</v>
+        <v>3455.414931869856</v>
       </c>
       <c r="R18">
-        <v>12921.30346398248</v>
+        <v>31098.73438682871</v>
       </c>
       <c r="S18">
-        <v>0.02973752391446704</v>
+        <v>0.04882152524102892</v>
       </c>
       <c r="T18">
-        <v>0.03563958288378093</v>
+        <v>0.06055306455252482</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H19">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I19">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J19">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.39862333333333</v>
+        <v>21.65346833333334</v>
       </c>
       <c r="N19">
-        <v>88.19587</v>
+        <v>64.96040500000001</v>
       </c>
       <c r="O19">
-        <v>0.3276152599673137</v>
+        <v>0.1801359660068359</v>
       </c>
       <c r="P19">
-        <v>0.3588048423997975</v>
+        <v>0.2054237164559686</v>
       </c>
       <c r="Q19">
-        <v>4470.759973087022</v>
+        <v>3043.748416595782</v>
       </c>
       <c r="R19">
-        <v>40236.83975778319</v>
+        <v>27393.73574936204</v>
       </c>
       <c r="S19">
-        <v>0.09260242110054651</v>
+        <v>0.04300509289857107</v>
       </c>
       <c r="T19">
-        <v>0.11098138740617</v>
+        <v>0.05333897606677106</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H20">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I20">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J20">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.370274</v>
+        <v>17.854749</v>
       </c>
       <c r="N20">
-        <v>14.740548</v>
+        <v>35.709498</v>
       </c>
       <c r="O20">
-        <v>0.08213358173824917</v>
+        <v>0.1485342860281391</v>
       </c>
       <c r="P20">
-        <v>0.05996856771214628</v>
+        <v>0.1129238309388153</v>
       </c>
       <c r="Q20">
-        <v>274.080122307801</v>
+        <v>635.4617564744954</v>
       </c>
       <c r="R20">
-        <v>1096.320489231204</v>
+        <v>2541.847025897981</v>
       </c>
       <c r="S20">
-        <v>0.005676995198583938</v>
+        <v>0.008978433211388529</v>
       </c>
       <c r="T20">
-        <v>0.00302387487857206</v>
+        <v>0.004949289097341281</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H21">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I21">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J21">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.949648</v>
       </c>
       <c r="O21">
-        <v>0.01838612416053829</v>
+        <v>0.01372543203623505</v>
       </c>
       <c r="P21">
-        <v>0.020136517396727</v>
+        <v>0.0156522282659545</v>
       </c>
       <c r="Q21">
-        <v>61.35457692258399</v>
+        <v>58.72036270780533</v>
       </c>
       <c r="R21">
-        <v>368.127461535504</v>
+        <v>352.322176246832</v>
       </c>
       <c r="S21">
-        <v>0.00127083144763594</v>
+        <v>0.0008296594552684147</v>
       </c>
       <c r="T21">
-        <v>0.001015370408547527</v>
+        <v>0.0006860146530784912</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H22">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I22">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J22">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.84483466666667</v>
+        <v>27.92847233333333</v>
       </c>
       <c r="N22">
-        <v>77.534504</v>
+        <v>83.785417</v>
       </c>
       <c r="O22">
-        <v>0.2880122015282203</v>
+        <v>0.2323379453773505</v>
       </c>
       <c r="P22">
-        <v>0.3154314990970265</v>
+        <v>0.2649538860626421</v>
       </c>
       <c r="Q22">
-        <v>961.0979790527319</v>
+        <v>993.991911316667</v>
       </c>
       <c r="R22">
-        <v>5766.587874316391</v>
+        <v>5963.951467900002</v>
       </c>
       <c r="S22">
-        <v>0.01990712995349459</v>
+        <v>0.01404410241448624</v>
       </c>
       <c r="T22">
-        <v>0.01590542216396194</v>
+        <v>0.0116125477561822</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H23">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I23">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J23">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.0307785</v>
+        <v>26.5375775</v>
       </c>
       <c r="N23">
-        <v>32.061557</v>
+        <v>53.075155</v>
       </c>
       <c r="O23">
-        <v>0.1786453605737748</v>
+        <v>0.2207670422518351</v>
       </c>
       <c r="P23">
-        <v>0.1304351542365547</v>
+        <v>0.1678390950853305</v>
       </c>
       <c r="Q23">
-        <v>596.1403513586152</v>
+        <v>944.4890886300362</v>
       </c>
       <c r="R23">
-        <v>2384.561405434461</v>
+        <v>3777.956354520145</v>
       </c>
       <c r="S23">
-        <v>0.01234779773100195</v>
+        <v>0.01334467749593103</v>
       </c>
       <c r="T23">
-        <v>0.006577105327441435</v>
+        <v>0.007356146143000906</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H24">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I24">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J24">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.440814333333334</v>
+        <v>24.58209666666666</v>
       </c>
       <c r="N24">
-        <v>28.322443</v>
+        <v>73.74628999999999</v>
       </c>
       <c r="O24">
-        <v>0.1052074720319038</v>
+        <v>0.2044993282996043</v>
       </c>
       <c r="P24">
-        <v>0.115223419157748</v>
+        <v>0.233207243191289</v>
       </c>
       <c r="Q24">
-        <v>351.0777953662565</v>
+        <v>874.8922947965181</v>
       </c>
       <c r="R24">
-        <v>2106.466772197539</v>
+        <v>5249.353768779109</v>
       </c>
       <c r="S24">
-        <v>0.007271840591144341</v>
+        <v>0.01236134504705517</v>
       </c>
       <c r="T24">
-        <v>0.005810063770186094</v>
+        <v>0.01022113805874191</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H25">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I25">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J25">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.39862333333333</v>
+        <v>21.65346833333334</v>
       </c>
       <c r="N25">
-        <v>88.19587</v>
+        <v>64.96040500000001</v>
       </c>
       <c r="O25">
-        <v>0.3276152599673137</v>
+        <v>0.1801359660068359</v>
       </c>
       <c r="P25">
-        <v>0.3588048423997975</v>
+        <v>0.2054237164559686</v>
       </c>
       <c r="Q25">
-        <v>1093.253558671085</v>
+        <v>770.6605688416493</v>
       </c>
       <c r="R25">
-        <v>6559.52135202651</v>
+        <v>4623.963413049895</v>
       </c>
       <c r="S25">
-        <v>0.02264445575677527</v>
+        <v>0.01088865596630621</v>
       </c>
       <c r="T25">
-        <v>0.01809249396201601</v>
+        <v>0.009003426041591905</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H26">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I26">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J26">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.370274</v>
+        <v>17.854749</v>
       </c>
       <c r="N26">
-        <v>14.740548</v>
+        <v>35.709498</v>
       </c>
       <c r="O26">
-        <v>0.08213358173824917</v>
+        <v>0.1485342860281391</v>
       </c>
       <c r="P26">
-        <v>0.05996856771214628</v>
+        <v>0.1129238309388153</v>
       </c>
       <c r="Q26">
-        <v>655.781130512324</v>
+        <v>1232.578368320607</v>
       </c>
       <c r="R26">
-        <v>3934.686783073944</v>
+        <v>7395.470209923642</v>
       </c>
       <c r="S26">
-        <v>0.01358313145037023</v>
+        <v>0.01741508823310752</v>
       </c>
       <c r="T26">
-        <v>0.01085266638292084</v>
+        <v>0.01439989098744307</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H27">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I27">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J27">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.949648</v>
       </c>
       <c r="O27">
-        <v>0.01838612416053829</v>
+        <v>0.01372543203623505</v>
       </c>
       <c r="P27">
-        <v>0.020136517396727</v>
+        <v>0.0156522282659545</v>
       </c>
       <c r="Q27">
-        <v>146.8007729915271</v>
+        <v>113.8974110025547</v>
       </c>
       <c r="R27">
-        <v>1321.206956923744</v>
+        <v>1025.076699022992</v>
       </c>
       <c r="S27">
-        <v>0.003040670284309742</v>
+        <v>0.001609255454348573</v>
       </c>
       <c r="T27">
-        <v>0.003644157493798152</v>
+        <v>0.001995950534678914</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H28">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I28">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J28">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.84483466666667</v>
+        <v>27.92847233333333</v>
       </c>
       <c r="N28">
-        <v>77.534504</v>
+        <v>83.785417</v>
       </c>
       <c r="O28">
-        <v>0.2880122015282203</v>
+        <v>0.2323379453773505</v>
       </c>
       <c r="P28">
-        <v>0.3154314990970265</v>
+        <v>0.2649538860626421</v>
       </c>
       <c r="Q28">
-        <v>2299.582742189879</v>
+        <v>1928.00418859471</v>
       </c>
       <c r="R28">
-        <v>20696.24467970891</v>
+        <v>17352.03769735239</v>
       </c>
       <c r="S28">
-        <v>0.04763103604973422</v>
+        <v>0.02724075314085357</v>
       </c>
       <c r="T28">
-        <v>0.05708445202154229</v>
+        <v>0.03378655368208926</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H29">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I29">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J29">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.0307785</v>
+        <v>26.5375775</v>
       </c>
       <c r="N29">
-        <v>32.061557</v>
+        <v>53.075155</v>
       </c>
       <c r="O29">
-        <v>0.1786453605737748</v>
+        <v>0.2207670422518351</v>
       </c>
       <c r="P29">
-        <v>0.1304351542365547</v>
+        <v>0.1678390950853305</v>
       </c>
       <c r="Q29">
-        <v>1426.362445646208</v>
+        <v>1831.985651219833</v>
       </c>
       <c r="R29">
-        <v>8558.174673877247</v>
+        <v>10991.913907319</v>
       </c>
       <c r="S29">
-        <v>0.02954410807756521</v>
+        <v>0.02588410812470278</v>
       </c>
       <c r="T29">
-        <v>0.02360518630908432</v>
+        <v>0.02140260964020396</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H30">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I30">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J30">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.440814333333334</v>
+        <v>24.58209666666666</v>
       </c>
       <c r="N30">
-        <v>28.322443</v>
+        <v>73.74628999999999</v>
       </c>
       <c r="O30">
-        <v>0.1052074720319038</v>
+        <v>0.2044993282996043</v>
       </c>
       <c r="P30">
-        <v>0.115223419157748</v>
+        <v>0.233207243191289</v>
       </c>
       <c r="Q30">
-        <v>840.010547297195</v>
+        <v>1696.991685478156</v>
       </c>
       <c r="R30">
-        <v>7560.094925674754</v>
+        <v>15272.92516930341</v>
       </c>
       <c r="S30">
-        <v>0.01739905763180664</v>
+        <v>0.02397677964583978</v>
       </c>
       <c r="T30">
-        <v>0.02085227937443653</v>
+        <v>0.02973826562133029</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H31">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I31">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J31">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.39862333333333</v>
+        <v>21.65346833333334</v>
       </c>
       <c r="N31">
-        <v>88.19587</v>
+        <v>64.96040500000001</v>
       </c>
       <c r="O31">
-        <v>0.3276152599673137</v>
+        <v>0.1801359660068359</v>
       </c>
       <c r="P31">
-        <v>0.3588048423997975</v>
+        <v>0.2054237164559686</v>
       </c>
       <c r="Q31">
-        <v>2615.786393428429</v>
+        <v>1494.817802635138</v>
       </c>
       <c r="R31">
-        <v>23542.07754085586</v>
+        <v>13453.36022371625</v>
       </c>
       <c r="S31">
-        <v>0.05418053184950629</v>
+        <v>0.02112026674683579</v>
       </c>
       <c r="T31">
-        <v>0.06493383783706388</v>
+        <v>0.0261953486576639</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H32">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I32">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J32">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.370274</v>
+        <v>17.854749</v>
       </c>
       <c r="N32">
-        <v>14.740548</v>
+        <v>35.709498</v>
       </c>
       <c r="O32">
-        <v>0.08213358173824917</v>
+        <v>0.1485342860281391</v>
       </c>
       <c r="P32">
-        <v>0.05996856771214628</v>
+        <v>0.1129238309388153</v>
       </c>
       <c r="Q32">
-        <v>630.7740807277679</v>
+        <v>2938.825545458121</v>
       </c>
       <c r="R32">
-        <v>3784.644484366608</v>
+        <v>17632.95327274873</v>
       </c>
       <c r="S32">
-        <v>0.01306516283461544</v>
+        <v>0.0415226386340013</v>
       </c>
       <c r="T32">
-        <v>0.01043881920753649</v>
+        <v>0.03433353089213252</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H33">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I33">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J33">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.949648</v>
       </c>
       <c r="O33">
-        <v>0.01838612416053829</v>
+        <v>0.01372543203623505</v>
       </c>
       <c r="P33">
-        <v>0.020136517396727</v>
+        <v>0.0156522282659545</v>
       </c>
       <c r="Q33">
-        <v>141.202785998912</v>
+        <v>271.5645752179751</v>
       </c>
       <c r="R33">
-        <v>1270.825073990208</v>
+        <v>2444.081176961776</v>
       </c>
       <c r="S33">
-        <v>0.002924719718426961</v>
+        <v>0.003836933342300271</v>
       </c>
       <c r="T33">
-        <v>0.00350519401401797</v>
+        <v>0.004758926953080717</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H34">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I34">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J34">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.84483466666667</v>
+        <v>27.92847233333333</v>
       </c>
       <c r="N34">
-        <v>77.534504</v>
+        <v>83.785417</v>
       </c>
       <c r="O34">
-        <v>0.2880122015282203</v>
+        <v>0.2323379453773505</v>
       </c>
       <c r="P34">
-        <v>0.3154314990970265</v>
+        <v>0.2649538860626421</v>
       </c>
       <c r="Q34">
-        <v>2211.892234729376</v>
+        <v>4596.923089695653</v>
       </c>
       <c r="R34">
-        <v>19907.03011256438</v>
+        <v>41372.30780726088</v>
       </c>
       <c r="S34">
-        <v>0.0458147110071775</v>
+        <v>0.06494988332217401</v>
       </c>
       <c r="T34">
-        <v>0.05490763773517882</v>
+        <v>0.08055697682671722</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H35">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I35">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J35">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.0307785</v>
+        <v>26.5375775</v>
       </c>
       <c r="N35">
-        <v>32.061557</v>
+        <v>53.075155</v>
       </c>
       <c r="O35">
-        <v>0.1786453605737748</v>
+        <v>0.2207670422518351</v>
       </c>
       <c r="P35">
-        <v>0.1304351542365547</v>
+        <v>0.1678390950853305</v>
       </c>
       <c r="Q35">
-        <v>1371.970644739662</v>
+        <v>4367.986952467082</v>
       </c>
       <c r="R35">
-        <v>8231.823868437972</v>
+        <v>26207.92171480249</v>
       </c>
       <c r="S35">
-        <v>0.02841749593952033</v>
+        <v>0.06171524678136353</v>
       </c>
       <c r="T35">
-        <v>0.0227050444145717</v>
+        <v>0.05103005015072522</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H36">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I36">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J36">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.440814333333334</v>
+        <v>24.58209666666666</v>
       </c>
       <c r="N36">
-        <v>28.322443</v>
+        <v>73.74628999999999</v>
       </c>
       <c r="O36">
-        <v>0.1052074720319038</v>
+        <v>0.2044993282996043</v>
       </c>
       <c r="P36">
-        <v>0.115223419157748</v>
+        <v>0.233207243191289</v>
       </c>
       <c r="Q36">
-        <v>807.9782356028919</v>
+        <v>4046.122051053248</v>
       </c>
       <c r="R36">
-        <v>7271.804120426027</v>
+        <v>36415.09845947922</v>
       </c>
       <c r="S36">
-        <v>0.01673557544215743</v>
+        <v>0.05716762060088819</v>
       </c>
       <c r="T36">
-        <v>0.02005711470107878</v>
+        <v>0.07090467992283631</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H37">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I37">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J37">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.39862333333333</v>
+        <v>21.65346833333334</v>
       </c>
       <c r="N37">
-        <v>88.19587</v>
+        <v>64.96040500000001</v>
       </c>
       <c r="O37">
-        <v>0.3276152599673137</v>
+        <v>0.1801359660068359</v>
       </c>
       <c r="P37">
-        <v>0.3588048423997975</v>
+        <v>0.2054237164559686</v>
       </c>
       <c r="Q37">
-        <v>2516.03802080428</v>
+        <v>3564.080676002138</v>
       </c>
       <c r="R37">
-        <v>22644.34218723852</v>
+        <v>32076.72608401924</v>
       </c>
       <c r="S37">
-        <v>0.05211445340614542</v>
+        <v>0.05035686252311867</v>
       </c>
       <c r="T37">
-        <v>0.06245770115068932</v>
+        <v>0.06245733479179517</v>
       </c>
     </row>
   </sheetData>
